--- a/Ficheros.iesjulianmarias.es/src/main/resources/vehiculosElectricos.xlsx
+++ b/Ficheros.iesjulianmarias.es/src/main/resources/vehiculosElectricos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\WE_AD_2024_2025\ejerciciosAD.iesjulianmarias.es\src\main\resources\"/>
     </mc:Choice>
@@ -14,13 +14,15 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="burgos" r:id="rId5" sheetId="2"/>
+    <sheet name="salamanca" r:id="rId6" sheetId="3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="716">
   <si>
     <t>Nombre</t>
   </si>
@@ -2174,6 +2176,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7543,4 +7546,286 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>357</v>
+      </c>
+      <c r="B9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>357</v>
+      </c>
+      <c r="B10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>376</v>
+      </c>
+      <c r="B11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>384</v>
+      </c>
+      <c r="B12" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>458</v>
+      </c>
+      <c r="B13" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>467</v>
+      </c>
+      <c r="B14" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>471</v>
+      </c>
+      <c r="B15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>525</v>
+      </c>
+      <c r="B16" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>551</v>
+      </c>
+      <c r="B17" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>650</v>
+      </c>
+      <c r="B18" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>654</v>
+      </c>
+      <c r="B19" t="s">
+        <v>655</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>491</v>
+      </c>
+      <c r="B4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>529</v>
+      </c>
+      <c r="B5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>533</v>
+      </c>
+      <c r="B6" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>542</v>
+      </c>
+      <c r="B7" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>555</v>
+      </c>
+      <c r="B8" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>572</v>
+      </c>
+      <c r="B9" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>580</v>
+      </c>
+      <c r="B10" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>592</v>
+      </c>
+      <c r="B11" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>634</v>
+      </c>
+      <c r="B12" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>659</v>
+      </c>
+      <c r="B13" t="s">
+        <v>660</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>